--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/ANN model/FORGE_ANN_MultiOutput/20230220_RealData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B324D98E-D3B0-514D-845D-2EA0D1211938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB337DE9-ECA5-B14B-A667-FDA66A8D3D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37480" yWindow="500" windowWidth="37480" windowHeight="21100" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>Fe</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>microstructure</t>
+  </si>
+  <si>
+    <t>FCC</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -333,17 +339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -376,17 +371,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1518,7 +1502,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="1104" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,9 +1514,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,20 +1521,14 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,6 +1540,15 @@
     </xf>
     <xf numFmtId="2" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="1104" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1108">
@@ -3015,23 +2999,24 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79995117038483843"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="22" customWidth="1"/>
-    <col min="3" max="5" width="20.83203125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="9.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="19" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3050,8 +3035,11 @@
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -3067,1368 +3055,1575 @@
       <c r="E2" s="10">
         <v>0.88078190929546452</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>14.316993596570892</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>40.922556988370019</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>36.620145408873803</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>5.8763220256411834</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1.3020649029065583</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="22">
         <v>15.278910674208435</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>37.761748148540825</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>36.643215984203948</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>7.8039495598382098</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>1.9313461066888415</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="22">
         <v>15.859740200728162</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>34.640323042411161</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>36.119076123189188</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>9.9382438121791488</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>2.6769084149527167</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="22">
         <v>16.625448607267799</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>32.018062834460864</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>34.359633040367839</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>13.07589480250266</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>3.8247232529919684</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="22">
         <v>16.721686069676657</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>52.953402494521818</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>25.787373831253579</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>3.020229760012374</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.65876346310829448</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="22">
         <v>17.580230451103919</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>48.969390048921923</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>27.914361243760865</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3.715176746073181</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.82289119596347915</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="22">
         <v>18.578180765280539</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>43.89614162525374</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>29.667545183887086</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>5.4403860410022302</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1.3875445591014097</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="22">
         <v>19.608382590755543</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>40.722309570953598</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>29.987298063565841</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>7.2265266815184583</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>1.9588627018546441</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="22">
         <v>20.105002982107454</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>36.746281695068376</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>29.848031479860527</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>9.6836621425638469</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>2.8991979595540109</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="22">
         <v>20.822826722953238</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>33.809361726083225</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>29.321881935948717</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>11.335061692006269</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>4.4743787482695563</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="22">
         <v>21.059315897692226</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>30.803092329378146</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>26.754937447274934</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>14.613158410431623</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>6.4443173605459565</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="22">
         <v>21.384494452369349</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>60.472744076941694</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>17.070530422593784</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>2.1277560370060002</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>0.53199925653800673</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="22">
         <v>19.796970206920513</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>55.110199869419077</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>19.819637007454737</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>2.9524381893140621</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>0.63569050054082665</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="22">
         <v>21.482034433271288</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>49.485548791620865</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>21.107630415516439</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>5.8086872595372503</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>1.1218173059391117</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="22">
         <v>22.476316227386324</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>46.367880049688054</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>23.134276250051503</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>4.6383148626112414</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>1.5018963944673698</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="22">
         <v>24.357632443181828</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>41.978130697288726</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>24.036244595854875</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>6.3261791213945386</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>2.038803217487418</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="22">
         <v>25.620642367974451</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>38.377675367989717</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>24.052153055231656</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>8.2419165870259015</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>3.3985778949977301</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="22">
         <v>25.929677094754993</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>34.948387510109043</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>23.850422463946209</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>10.213021866933669</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>4.7922866088781602</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="22">
         <v>26.195881550132928</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>31.943397592413746</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>22.746220418576041</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>12.210934702311176</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>7.2267723777921917</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="22">
         <v>25.872674908906852</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>27.804524697644776</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>21.252748825039554</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>15.570851571820141</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>10.731322519147152</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="22">
         <v>24.640552386348364</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>59.786052657728931</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>12.946773609814139</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>2.0714580631682193</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>0.4970917086162015</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="22">
         <v>24.69862396067251</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>55.255972396814748</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>14.621698991856924</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>2.2957335127319114</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>0.71030422249626746</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="22">
         <v>27.116290876100162</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>50.353278319115624</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>16.443957138123448</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>3.1850063753506235</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>1.0378012500703599</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="22">
         <v>28.979956917339951</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>46.348595706435155</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>17.804743396146918</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>4.073004266397291</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>1.4310028578232434</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="22">
         <v>30.34265377319738</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>42.400931486841152</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>18.236967158783955</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>5.2902060156572546</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>2.2066082042176736</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="22">
         <v>31.865287134499958</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>38.632917806690905</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>19.104235706362264</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>7.0165794419700518</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>3.544874673404641</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="22">
         <v>31.701392371572148</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>35.29946336459976</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>19.341372086263956</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>8.488290469014574</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>5.128837766050812</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="22">
         <v>31.742036314070905</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>32.128720206986934</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>18.316641019258551</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>11.050207779267202</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>7.7420551084491738</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="22">
         <v>30.762375886038129</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>28.511506356434836</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>17.258242780029068</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>12.654611804189594</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>11.841211164792199</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="22">
         <v>29.734427894554312</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>57.919330658562352</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>9.6093601490622564</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>1.5890631421195147</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>0.50441766457703774</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="22">
         <v>30.377828385678836</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>52.925169790150598</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>10.973333777345996</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>2.1920651547342422</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>0.79283748387008679</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="22">
         <v>33.116593793899071</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>48.281909615002647</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>12.259670623017648</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>2.9490806215697956</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>1.1042914460068263</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="22">
         <v>35.405047694403095</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>44.213109517604622</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>12.904572931936103</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>3.6386808883163408</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>1.6659927669616954</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="22">
         <v>37.577643895181239</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>40.341179427010623</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>14.240771696429016</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>4.8200917289271361</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>2.5068010585566696</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="22">
         <v>38.091156089076563</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>37.734588607993082</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>14.223104733374814</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>6.0845026286779538</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>3.6220065238385737</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="22">
         <v>38.33579750611559</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>34.007115357660908</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>15.018105517092147</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>7.6955015945684728</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>5.383990989518713</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="22">
         <v>37.895286541159756</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>31.375947422382566</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>14.939082289475614</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>8.7037546939335506</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>7.9320462044473103</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="22">
         <v>37.049169389760955</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>28.413289655701462</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>13.491010907588224</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>10.742321395617207</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>12.344817772287293</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="22">
         <v>35.008560268805809</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>53.117989626832085</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>7.2806695397855989</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>1.5324283985842471</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>0.48027320987560718</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="22">
         <v>37.588639224922467</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>48.681959667787602</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <v>8.2077548285133286</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>1.9600662483945475</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>0.68167645944982125</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="22">
         <v>40.468542795854702</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>45.398683937155667</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <v>8.9990939890156838</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>2.2329709900078836</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>0.95559108747768806</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="22">
         <v>42.413659996343085</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>40.971138504932803</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>9.8906774958930939</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>3.5829624797120978</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>1.5046545105136639</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="22">
         <v>44.050567008948342</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>38.055540801011638</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <v>10.450169410214034</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>4.0576053116735604</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>2.1514108623457431</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="22">
         <v>45.285273614755035</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>35.433404437611436</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>10.886782105200046</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>5.1056033037050241</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>3.4600579212572362</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="22">
         <v>45.114152232226253</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>32.094283623031203</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <v>11.263841640757772</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>6.3020470269354716</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>5.3639858497089286</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="22">
         <v>44.975841859566614</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>30.205519824702353</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <v>11.610629587591569</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>7.9332855380063325</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>8.1640396862244611</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="22">
         <v>42.086525363475296</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>27.195899652944412</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>11.455382721570015</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>9.0586141623321801</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <v>11.474251599663457</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="22">
         <v>40.815851863489947</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>47.583673489448834</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>5.2238335840715457</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>1.2689552642878279</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>0.55153318203935808</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="22">
         <v>45.372004480152434</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>42.644630111825826</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <v>6.1447119664911609</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>1.7468678034264777</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>0.67592349419115516</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="22">
         <v>48.787866624065387</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>39.736097798812779</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>6.6847225733246614</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <v>1.9182853432252658</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <v>0.92413802792076993</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="22">
         <v>50.736756256716518</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>36.513958576416385</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="13">
         <v>7.1255570366480221</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>2.9086208610690547</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>1.4857648413689293</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="22">
         <v>51.966098684497616</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>33.94381032547561</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <v>7.818356008967962</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <v>3.48038624477838</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13">
         <v>2.3000827463732034</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="22">
         <v>52.457364674404836</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>31.978396610682637</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="13">
         <v>8.5352724508317497</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <v>4.2523329601497046</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <v>3.3817974080820385</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="22">
         <v>51.852200570253871</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>29.88165140595067</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="13">
         <v>8.790516358863357</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="13">
         <v>4.8170713188550689</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <v>5.1379994410040446</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="22">
         <v>51.372761475326854</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>27.446397675509417</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="13">
         <v>9.0974793964059177</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>6.385106315226083</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>7.1895408800435918</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="22">
         <v>49.881475732814998</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>25.798435731817527</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="13">
         <v>8.8584684805197682</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="13">
         <v>7.6580758555217479</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <v>11.537724841491965</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="22">
         <v>46.147295090648996</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>36.749228504451878</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="13">
         <v>4.4593377944857302</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>1.4790379963356566</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>0.60318523140262781</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="22">
         <v>56.709210473324113</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>34.313380243632182</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="13">
         <v>4.5368786209199037</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <v>1.9538341883675032</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <v>0.95867271292039458</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="22">
         <v>58.237234234160027</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>31.753573007745139</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="13">
         <v>5.2789946836237673</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="13">
         <v>2.3424327440280046</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <v>1.2788856586564967</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="22">
         <v>59.346113905946595</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>29.99528848365004</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="13">
         <v>5.7528374886421005</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <v>2.9148526358718634</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13">
         <v>2.0020884331287507</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="22">
         <v>59.334932958707242</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>28.729476009493172</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="13">
         <v>6.2579072159269167</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="13">
         <v>3.686192936964952</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="13">
         <v>2.9328859431045089</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="22">
         <v>58.393537894510459</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>27.032941246769365</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="13">
         <v>6.6269167978406038</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <v>4.2838689025429222</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="13">
         <v>4.7239045713546011</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="22">
         <v>57.332368481492502</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>25.464244703798713</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="13">
         <v>7.0324406103917232</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <v>5.527364889749399</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="13">
         <v>7.1431172909112339</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="22">
         <v>54.832832505148943</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>27.908152323724128</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="13">
         <v>3.5711938892078154</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="13">
         <v>1.5020331840395993</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="13">
         <v>0.83090198472803878</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F66" s="22">
         <v>66.187718618300423</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>26.491541441357725</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="13">
         <v>3.813661095882745</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="13">
         <v>1.6915222300094777</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <v>1.1485566411479824</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="22">
         <v>66.854718591602079</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>24.914374545262021</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="13">
         <v>4.4326129438190334</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="13">
         <v>2.4164589948223276</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <v>1.9404704241110473</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="22">
         <v>66.296083091985565</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>24.401984589595287</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="13">
         <v>4.8181508372135218</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <v>2.8394411586623804</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <v>2.6158996796719238</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="22">
         <v>65.324523734856882</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="15">
         <v>23.439964953814162</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="16">
         <v>5.0769815615928815</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="16">
         <v>4.0340330110203118</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="16">
         <v>4.0787088737595978</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="16">
         <v>63.370311599813043</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
